--- a/public/uploads/${ID_ORDEN_SERVICIO} ORDEN DE SERVICIO NEDETEL SA ${EXTREMO_CIU_NOMBRE}.xlsx
+++ b/public/uploads/${ID_ORDEN_SERVICIO} ORDEN DE SERVICIO NEDETEL SA ${EXTREMO_CIU_NOMBRE}.xlsx
@@ -299,10 +299,10 @@
     <t xml:space="preserve">User SIT</t>
   </si>
   <si>
-    <t xml:space="preserve">${CONCENTRADOR_UBI_DIRECCION} ${CONCENTRADOR_LOGIN}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${EXTREMO_UBI_DIRECCION} ${EXTREMO_LOGIN}</t>
+    <t xml:space="preserve">${CONCENTRADOR_UBI_DIRECCION}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${EXTREMO_UBI_DIRECCION}</t>
   </si>
   <si>
     <t xml:space="preserve">${CON_NOMBRES} ${CON_APELLIDOS}</t>
@@ -774,7 +774,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="112">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1023,10 +1023,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1047,18 +1043,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1077,18 +1061,6 @@
     </xf>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1275,9 +1247,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2012400</xdr:colOff>
+      <xdr:colOff>2012040</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1291,7 +1263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16546680" y="17184600"/>
-          <a:ext cx="1870920" cy="968760"/>
+          <a:ext cx="1870560" cy="968400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,8 +1285,8 @@
   </sheetPr>
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="34" zoomScaleNormal="34" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="44:44"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="34" zoomScaleNormal="34" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -2440,249 +2412,249 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" s="69" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63" t="s">
+    <row r="44" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="58"/>
+      <c r="B44" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I44" s="63" t="s">
+      <c r="I44" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="J44" s="63" t="s">
+      <c r="J44" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="K44" s="64" t="s">
+      <c r="K44" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="L44" s="63" t="s">
+      <c r="L44" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="63" t="s">
+      <c r="M44" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="N44" s="63" t="s">
+      <c r="N44" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="O44" s="63" t="s">
+      <c r="O44" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="P44" s="63" t="s">
+      <c r="P44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Q44" s="63" t="s">
+      <c r="Q44" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="65" t="s">
+      <c r="R44" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="S44" s="66" t="s">
+      <c r="S44" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="T44" s="67" t="s">
+      <c r="T44" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68" t="s">
+      <c r="U44" s="8"/>
+      <c r="V44" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="58"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="77"/>
-      <c r="T45" s="78"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="66"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="58"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="77"/>
-      <c r="T46" s="78"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="66"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
     </row>
     <row r="47" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="58"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="77"/>
-      <c r="T47" s="78"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="66"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
     </row>
     <row r="48" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="58"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="77"/>
-      <c r="T48" s="78"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="66"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
     </row>
     <row r="49" s="1" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="58"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="78"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="66"/>
       <c r="U49" s="9"/>
       <c r="V49" s="8"/>
     </row>
     <row r="50" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="58"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R51" s="85" t="s">
+      <c r="R51" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="S51" s="86" t="s">
+      <c r="S51" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="T51" s="86" t="s">
+      <c r="T51" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="U51" s="79"/>
+      <c r="U51" s="72"/>
     </row>
     <row r="52" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R52" s="85" t="s">
+      <c r="R52" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="S52" s="86" t="s">
+      <c r="S52" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="T52" s="86" t="s">
+      <c r="T52" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="U52" s="79"/>
+      <c r="U52" s="72"/>
     </row>
     <row r="53" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R53" s="85" t="s">
+      <c r="R53" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="S53" s="86" t="s">
+      <c r="S53" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="T53" s="86" t="s">
+      <c r="T53" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="U53" s="79"/>
+      <c r="U53" s="72"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="52"/>
@@ -2724,11 +2696,11 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="87"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="88"/>
+      <c r="B56" s="81"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="61" t="s">
@@ -2740,195 +2712,195 @@
       </c>
       <c r="E57" s="61"/>
       <c r="F57" s="61"/>
-      <c r="G57" s="89" t="s">
+      <c r="G57" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="H57" s="90"/>
-      <c r="I57" s="91" t="s">
+      <c r="H57" s="83"/>
+      <c r="I57" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="J57" s="91"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="92" t="s">
+      <c r="J57" s="84"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="N57" s="92"/>
-      <c r="O57" s="92"/>
-      <c r="P57" s="92"/>
-      <c r="Q57" s="92"/>
-      <c r="R57" s="92"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="85"/>
     </row>
     <row r="58" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
-      <c r="R58" s="98"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="91"/>
     </row>
     <row r="59" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="100" t="s">
+      <c r="C59" s="92"/>
+      <c r="D59" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="101" t="s">
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H59" s="102" t="s">
+      <c r="H59" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="I59" s="102"/>
-      <c r="J59" s="102"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="104"/>
-      <c r="N59" s="104"/>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="104"/>
-      <c r="R59" s="105"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="97"/>
+      <c r="N59" s="97"/>
+      <c r="O59" s="97"/>
+      <c r="P59" s="97"/>
+      <c r="Q59" s="97"/>
+      <c r="R59" s="98"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="106"/>
-      <c r="N60" s="106"/>
-      <c r="O60" s="106"/>
-      <c r="P60" s="106"/>
-      <c r="Q60" s="106"/>
-      <c r="R60" s="105"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="94"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="98"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="111"/>
-      <c r="K61" s="103"/>
-      <c r="L61" s="103"/>
-      <c r="M61" s="106"/>
-      <c r="N61" s="106"/>
-      <c r="O61" s="106"/>
-      <c r="P61" s="106"/>
-      <c r="Q61" s="106"/>
-      <c r="R61" s="105"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="99"/>
+      <c r="R61" s="98"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="115"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="105"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="98"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="112"/>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="115"/>
-      <c r="N63" s="115"/>
-      <c r="O63" s="115"/>
-      <c r="P63" s="115"/>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="98"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="116"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="116"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="109"/>
+      <c r="F70" s="109"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="117"/>
-      <c r="R71" s="117"/>
+      <c r="C71" s="110"/>
+      <c r="R71" s="110"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="118" t="s">
+      <c r="C72" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="R72" s="118" t="s">
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="R72" s="111" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C73" s="118" t="s">
+      <c r="C73" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="R73" s="118" t="s">
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="R73" s="111" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3041,7 +3013,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="34" zoomScaleNormal="34" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="44:44 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
